--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1484.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1484.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.58436616928319</v>
+        <v>1.474661827087402</v>
       </c>
       <c r="B1">
-        <v>2.638351410947167</v>
+        <v>3.787441253662109</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.73789381980896</v>
       </c>
       <c r="D1">
-        <v>1.25978897346442</v>
+        <v>1.572843074798584</v>
       </c>
       <c r="E1">
-        <v>0.5522960156997815</v>
+        <v>0.9992862343788147</v>
       </c>
     </row>
   </sheetData>
